--- a/biology/Zoologie/Heniochus_intermedius/Heniochus_intermedius.xlsx
+++ b/biology/Zoologie/Heniochus_intermedius/Heniochus_intermedius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heniochus intermedius est une espèce de poisson d'eau de mer du  genre Heniochus (poisson-cocher).
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en mer Rouge, dans le golfe d'Aden et dans l'ouest de l'océan Indien, le long des côtes de l'Érythrée, de Djibouti et de la Somalie. Elle vit entre 3 et 50 m de profondeur.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Heniochus intermedius peut mesurer jusqu'à 18 cm.
 </t>
